--- a/табличкоЗАДАНИЕtrio.xlsx
+++ b/табличкоЗАДАНИЕtrio.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29609"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29446895\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5060F3C2-E59D-40CD-9590-7209ADF77C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12060" windowHeight="6060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12060" windowHeight="6060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="34">
   <si>
     <t>опп</t>
   </si>
@@ -38,47 +50,101 @@
     <t>Z</t>
   </si>
   <si>
+    <t>NOXomg</t>
+  </si>
+  <si>
+    <t>noZomg</t>
+  </si>
+  <si>
+    <t>неXorZ</t>
+  </si>
+  <si>
+    <t>неZorX</t>
+  </si>
+  <si>
+    <t>(не x или z) и (не z или x)</t>
+  </si>
+  <si>
+    <t>y или(не x или z) и (не z или x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">не x или y </t>
+  </si>
+  <si>
+    <t>(не x или y) или z</t>
+  </si>
+  <si>
     <t>(y или (не z или x) и (не x или z)) или ((не x или y) или z)</t>
   </si>
   <si>
+    <t>AAAAA</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>a0=1</t>
+  </si>
+  <si>
+    <t>a3(+)a0=1</t>
+  </si>
+  <si>
+    <t>a1=1</t>
+  </si>
+  <si>
+    <t>a2(+)a0=1</t>
+  </si>
+  <si>
+    <t>a2=0</t>
+  </si>
+  <si>
+    <t>a2(+)a3(+)a23(+)a0=1</t>
+  </si>
+  <si>
+    <t>a3=0</t>
+  </si>
+  <si>
+    <t>a1(+)a0=0</t>
+  </si>
+  <si>
+    <t>a12=1</t>
+  </si>
+  <si>
+    <t>a1(+)a3(+)a13(+)a0=1</t>
+  </si>
+  <si>
+    <t>a13=1</t>
+  </si>
+  <si>
+    <t>a1(+)a2(+)a12(+)a0=1</t>
+  </si>
+  <si>
+    <t>a23=0</t>
+  </si>
+  <si>
+    <t>a123(+)a12(+)a13(+)a23(+)a1(+)a2(+)a3(+)a0=1</t>
+  </si>
+  <si>
+    <t>a123=1</t>
+  </si>
+  <si>
+    <t>ах...</t>
+  </si>
+  <si>
     <t>А НА ДЕЛЕ -----</t>
   </si>
   <si>
-    <t>(Y OR Z&lt;-&gt;X)OR((X-&gt;Y)OR Z)</t>
-  </si>
-  <si>
-    <t>NOXomg</t>
-  </si>
-  <si>
-    <t>noZomg</t>
-  </si>
-  <si>
-    <t>неXorZ</t>
-  </si>
-  <si>
-    <t>неZorX</t>
-  </si>
-  <si>
-    <t>(не x или z) и (не z или x)</t>
-  </si>
-  <si>
-    <t>y или(не x или z) и (не z или x)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">не x или y </t>
-  </si>
-  <si>
-    <t>(не x или y) или z</t>
-  </si>
-  <si>
-    <t>ЭТТ ЧО ТАКОЕ АААА??????</t>
+    <t>(Y OR Z&lt;-&gt;X)OR((X-&gt;Y)OR Z)=</t>
+  </si>
+  <si>
+    <t>x*y*z*(+)x*y(+)x*z(+)x(+)1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,7 +336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -293,11 +359,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -312,12 +402,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -608,24 +699,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE17" sqref="AE17"/>
+      <selection activeCell="AK16" sqref="AK16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="11" width="1.42578125" customWidth="1"/>
+    <col min="1" max="11" width="0.85546875" customWidth="1"/>
     <col min="12" max="37" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -649,10 +740,10 @@
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="11" t="s">
@@ -665,49 +756,53 @@
         <v>3</v>
       </c>
       <c r="O1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>8</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
       <c r="V1" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="W1" s="11"/>
       <c r="X1" s="11"/>
       <c r="Y1" s="11"/>
       <c r="Z1" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AA1" s="11"/>
       <c r="AB1" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC1" s="11"/>
       <c r="AD1" s="11" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
+      <c r="AF1" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="AG1" s="11"/>
       <c r="AH1" s="11"/>
       <c r="AI1" s="11"/>
       <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
+      <c r="AK1" s="11" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:37">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -734,20 +829,20 @@
       <c r="I2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="18" t="s">
+      <c r="J2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="b">
         <f>NOT(L2)</f>
@@ -755,7 +850,7 @@
       </c>
       <c r="P2" t="b">
         <f>NOT(N2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="b">
         <f>OR(O2,N2)</f>
@@ -763,11 +858,11 @@
       </c>
       <c r="R2" t="b">
         <f>OR(P2,L2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="b">
         <f>AND(Q2,R2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="b">
         <f>OR(M2,S2)</f>
@@ -785,12 +880,18 @@
         <f>OR(V2,AB2)</f>
         <v>1</v>
       </c>
+      <c r="AF2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -814,20 +915,20 @@
       <c r="I3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="16" t="s">
+      <c r="J3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="b">
         <f t="shared" ref="O3:O9" si="0">NOT(L3)</f>
@@ -835,7 +936,7 @@
       </c>
       <c r="P3" t="b">
         <f t="shared" ref="P3:P9" si="1">NOT(N3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="b">
         <f t="shared" ref="Q3:Q9" si="2">OR(O3,N3)</f>
@@ -843,37 +944,43 @@
       </c>
       <c r="R3" t="b">
         <f t="shared" ref="R3:R9" si="3">OR(P3,L3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="b">
         <f t="shared" ref="S3:S9" si="4">AND(Q3,R3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="b">
         <f t="shared" ref="V3:V9" si="5">OR(M3,S3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="b">
         <f t="shared" ref="Z3:Z9" si="6">OR(O3,M3)</f>
         <v>1</v>
       </c>
       <c r="AB3" t="b">
-        <f t="shared" ref="AB3:AB9" si="7">OR(Z3,N3)</f>
+        <f t="shared" ref="AB3:AB8" si="7">OR(Z3,N3)</f>
         <v>1</v>
       </c>
       <c r="AD3" t="b">
         <f t="shared" ref="AD3:AD9" si="8">OR(V3,AB3)</f>
         <v>1</v>
       </c>
+      <c r="AF3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:37">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -891,23 +998,23 @@
       <c r="H4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="18" t="s">
+      <c r="I4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="b">
         <f t="shared" si="0"/>
@@ -915,7 +1022,7 @@
       </c>
       <c r="P4" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="b">
         <f t="shared" si="2"/>
@@ -923,15 +1030,15 @@
       </c>
       <c r="R4" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" t="b">
         <f t="shared" si="6"/>
@@ -945,18 +1052,24 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="AF4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -968,26 +1081,26 @@
       <c r="G5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="16" t="s">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="16" t="s">
+      <c r="J5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="b">
         <f t="shared" si="0"/>
@@ -995,7 +1108,7 @@
       </c>
       <c r="P5" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="b">
         <f t="shared" si="2"/>
@@ -1003,11 +1116,11 @@
       </c>
       <c r="R5" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="b">
         <f t="shared" si="5"/>
@@ -1025,248 +1138,272 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="AF5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:37">
+      <c r="A6" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="16" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="18" t="s">
+      <c r="I6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="16" t="s">
         <v>0</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P6" s="14" t="b">
+      <c r="P6" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S6" s="14" t="b">
+      <c r="S6" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="V6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Z6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="b">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AB6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="b">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AD6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="16" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="16" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16" t="s">
+      <c r="J7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>0</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="14" t="b">
+      <c r="P7" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q7" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S7" s="14" t="b">
+      <c r="S7" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="V7" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Z7" s="14" t="b">
+      <c r="Z7" t="b">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AB7" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD7" s="14" t="b">
+      <c r="AD7" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="AF7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="17" t="s">
+      <c r="I8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>0</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P8" s="14" t="b">
+      <c r="P8" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R8" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S8" s="14" t="b">
+      <c r="S8" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="V8" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Z8" s="14" t="b">
+      <c r="Z8" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AD8" s="14" t="b">
+      <c r="AD8" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="AF8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1276,77 +1413,83 @@
       <c r="C9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="16" t="s">
         <v>0</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="16" t="s">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="17" t="s">
+      <c r="J9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15" t="s">
         <v>0</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P9" s="14" t="b">
+      <c r="P9" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q9" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S9" s="14" t="b">
+      <c r="S9" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="V9" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="14" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="b">
+        <f>OR(Z9,N9)</f>
+        <v>1</v>
+      </c>
+      <c r="AD9" s="19" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1356,80 +1499,80 @@
       <c r="C10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="16" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="16" t="s">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>15</v>
+      <c r="J10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="18" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="16" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="17" t="s">
+      <c r="I11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -1441,27 +1584,27 @@
       <c r="G12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="16" t="s">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="17" t="s">
+      <c r="J12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:37">
+      <c r="A13" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1479,24 +1622,24 @@
       <c r="H13" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
-        <v>4</v>
+      <c r="I13" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1508,7 +1651,7 @@
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
@@ -1520,18 +1663,18 @@
       <c r="I14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>5</v>
+      <c r="J14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:37">
+      <c r="A15" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1543,13 +1686,13 @@
       <c r="D15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="16" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="9" t="s">
@@ -1558,17 +1701,20 @@
       <c r="I15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
-        <v>6</v>
+      <c r="J15" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -1578,7 +1724,7 @@
       <c r="C16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -1590,7 +1736,7 @@
       <c r="G16" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="16" t="s">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -1599,18 +1745,18 @@
       <c r="J16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1628,21 +1774,21 @@
       <c r="H17" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="18" t="s">
+      <c r="I17" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -1666,14 +1812,14 @@
       <c r="I18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18" s="17" t="s">
+      <c r="J18" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="H20" s="12"/>
     </row>
   </sheetData>
